--- a/web_prototype/performance_test.xlsx
+++ b/web_prototype/performance_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaxin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FIT3164_software\web_prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B6875ED-3F6A-334B-8C8D-6C171F8D733D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B534AF-909E-4B65-B946-6510A978A8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1920" windowWidth="27240" windowHeight="15940" xr2:uid="{7DFBB326-A9F5-424F-B961-21BBE286E575}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DFBB326-A9F5-424F-B961-21BBE286E575}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,12 +444,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,60 +457,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>0.80036969999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.89648799999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.84519999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.85119999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>0.91558539999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.93579939999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.78259999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>0.45650000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.91979999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>0.77729999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.66669999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>0.60869569999999995</v>
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
